--- a/data/raw/Average_Price_Chicken_Fresh_Whole_Cost_per_Pound4536_Grams_in_US_City_Average_data.xlsx
+++ b/data/raw/Average_Price_Chicken_Fresh_Whole_Cost_per_Pound4536_Grams_in_US_City_Average_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -32,69 +32,36 @@
     <t xml:space="preserve">2005-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.026</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.038</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.061</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.070</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.052</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.075</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.067</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.042</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.056</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.062</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.059</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005-12-01</t>
   </si>
   <si>
@@ -104,363 +71,189 @@
     <t xml:space="preserve">2006-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.045</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.047</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.054</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.034</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.055</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.040</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.048</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.063</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">2006-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.049</t>
-  </si>
-  <si>
     <t xml:space="preserve">2006-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.057</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.033</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.039</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.064</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.115</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.118</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.134</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.130</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.145</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.142</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.135</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.161</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.166</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.163</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.159</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.168</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.194</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.181</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.191</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.223</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.214</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.205</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.304</t>
-  </si>
-  <si>
     <t xml:space="preserve">2008-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.305</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.292</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.290</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.301</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.296</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">2009-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.282</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.261</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.287</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.258</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.244</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.256</t>
-  </si>
-  <si>
     <t xml:space="preserve">2009-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.267</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.265</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-02-01</t>
   </si>
   <si>
     <t xml:space="preserve">2010-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.231</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.230</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.259</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.239</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.280</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.254</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.276</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.302</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.277</t>
-  </si>
-  <si>
     <t xml:space="preserve">2010-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">2011-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.241</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.266</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.269</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011-04-01</t>
   </si>
   <si>
@@ -473,366 +266,195 @@
     <t xml:space="preserve">2011-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.306</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">2011-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.294</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.312</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">2011-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.340</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.334</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.356</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.372</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.401</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.347</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.390</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.454</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.433</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.455</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.530</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.512</t>
-  </si>
-  <si>
     <t xml:space="preserve">2012-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.482</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.497</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.456</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.471</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.473</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.466</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.484</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.489</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.528</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.543</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.518</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.520</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.529</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.504</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.544</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">2014-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.556</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.503</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.495</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.572</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2014-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.549</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.533</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.541</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.546</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.550</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.545</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.539</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.483</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.515</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.487</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.428</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.415</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.430</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">2015-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.437</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.429</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.478</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.463</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.496</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">2016-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.408</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.445</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.426</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2016-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.502</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016-11-01</t>
   </si>
   <si>
@@ -842,30 +464,18 @@
     <t xml:space="preserve">2017-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.418</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-02-01</t>
   </si>
   <si>
     <t xml:space="preserve">2017-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.462</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.444</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.499</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-06-01</t>
   </si>
   <si>
@@ -878,24 +488,15 @@
     <t xml:space="preserve">2017-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.480</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">2017-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.451</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.470</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-01-01</t>
   </si>
   <si>
@@ -908,27 +509,15 @@
     <t xml:space="preserve">2018-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.511</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.523</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.514</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.519</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-08-01</t>
   </si>
   <si>
@@ -941,9 +530,6 @@
     <t xml:space="preserve">2018-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.501</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-12-01</t>
   </si>
   <si>
@@ -953,36 +539,21 @@
     <t xml:space="preserve">2019-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.486</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.468</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">2019-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.479</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.590</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.562</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-08-01</t>
   </si>
   <si>
@@ -992,102 +563,54 @@
     <t xml:space="preserve">2019-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.538</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">2019-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.450</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.409</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.362</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.400</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.571</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.747</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.712</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.609</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.542</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.580</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.639</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.621</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.595</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.583</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-03-01</t>
   </si>
   <si>
@@ -1100,21 +623,12 @@
     <t xml:space="preserve">2021-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.474</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.435</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.472</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-09-01</t>
   </si>
   <si>
@@ -1127,211 +641,112 @@
     <t xml:space="preserve">2021-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.606</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.622</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.632</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.724</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.794</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.824</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.826</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.880</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.879</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.891</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.863</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.843</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.830</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.855</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.894</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.868</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.873</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.920</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.953</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.958</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.901</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.926</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.976</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.955</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.987</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.951</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.991</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">2024-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2.013</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2.007</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-07-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.988</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">2024-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">1.979</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">2024-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2.076</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.061</t>
   </si>
   <si>
     <t xml:space="preserve">2025-01-01</t>
@@ -1690,8 +1105,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" t="n">
+        <v>1.026</v>
       </c>
     </row>
     <row r="3">
@@ -1702,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.038</v>
       </c>
     </row>
     <row r="4">
@@ -1716,10 +1131,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.061</v>
       </c>
     </row>
     <row r="5">
@@ -1730,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -1744,10 +1159,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.052</v>
       </c>
     </row>
     <row r="7">
@@ -1758,10 +1173,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.075</v>
       </c>
     </row>
     <row r="8">
@@ -1772,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.067</v>
       </c>
     </row>
     <row r="9">
@@ -1786,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.042</v>
       </c>
     </row>
     <row r="10">
@@ -1800,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.056</v>
       </c>
     </row>
     <row r="11">
@@ -1814,10 +1229,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.062</v>
       </c>
     </row>
     <row r="12">
@@ -1828,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.059</v>
       </c>
     </row>
     <row r="13">
@@ -1842,10 +1257,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.061</v>
       </c>
     </row>
     <row r="14">
@@ -1856,10 +1271,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.062</v>
       </c>
     </row>
     <row r="15">
@@ -1870,10 +1285,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.045</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1299,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.047</v>
       </c>
     </row>
     <row r="17">
@@ -1898,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.054</v>
       </c>
     </row>
     <row r="18">
@@ -1912,10 +1327,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.034</v>
       </c>
     </row>
     <row r="19">
@@ -1926,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.055</v>
       </c>
     </row>
     <row r="20">
@@ -1940,10 +1355,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="21">
@@ -1954,10 +1369,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.048</v>
       </c>
     </row>
     <row r="22">
@@ -1968,10 +1383,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.063</v>
       </c>
     </row>
     <row r="23">
@@ -1982,10 +1397,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.038</v>
       </c>
     </row>
     <row r="24">
@@ -1996,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.049</v>
       </c>
     </row>
     <row r="25">
@@ -2010,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.057</v>
       </c>
     </row>
     <row r="26">
@@ -2024,10 +1439,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.033</v>
       </c>
     </row>
     <row r="27">
@@ -2038,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.039</v>
       </c>
     </row>
     <row r="28">
@@ -2052,10 +1467,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.064</v>
       </c>
     </row>
     <row r="29">
@@ -2066,10 +1481,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.115</v>
       </c>
     </row>
     <row r="30">
@@ -2080,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.118</v>
       </c>
     </row>
     <row r="31">
@@ -2094,10 +1509,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.134</v>
       </c>
     </row>
     <row r="32">
@@ -2108,10 +1523,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="33">
@@ -2122,10 +1537,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.145</v>
       </c>
     </row>
     <row r="34">
@@ -2136,10 +1551,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.142</v>
       </c>
     </row>
     <row r="35">
@@ -2150,10 +1565,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.135</v>
       </c>
     </row>
     <row r="36">
@@ -2164,10 +1579,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.161</v>
       </c>
     </row>
     <row r="37">
@@ -2178,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.166</v>
       </c>
     </row>
     <row r="38">
@@ -2192,10 +1607,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.163</v>
       </c>
     </row>
     <row r="39">
@@ -2206,10 +1621,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.159</v>
       </c>
     </row>
     <row r="40">
@@ -2220,10 +1635,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.168</v>
       </c>
     </row>
     <row r="41">
@@ -2234,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.176</v>
       </c>
     </row>
     <row r="42">
@@ -2248,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.194</v>
       </c>
     </row>
     <row r="43">
@@ -2262,10 +1677,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>85</v>
+        <v>46</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.181</v>
       </c>
     </row>
     <row r="44">
@@ -2276,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.191</v>
       </c>
     </row>
     <row r="45">
@@ -2290,10 +1705,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.223</v>
       </c>
     </row>
     <row r="46">
@@ -2304,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.214</v>
       </c>
     </row>
     <row r="47">
@@ -2318,10 +1733,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>93</v>
+        <v>50</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.205</v>
       </c>
     </row>
     <row r="48">
@@ -2332,10 +1747,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.304</v>
       </c>
     </row>
     <row r="49">
@@ -2346,10 +1761,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.305</v>
       </c>
     </row>
     <row r="50">
@@ -2360,10 +1775,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.292</v>
       </c>
     </row>
     <row r="51">
@@ -2374,10 +1789,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="52">
@@ -2388,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.301</v>
       </c>
     </row>
     <row r="53">
@@ -2402,10 +1817,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.296</v>
       </c>
     </row>
     <row r="54">
@@ -2416,10 +1831,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.304</v>
       </c>
     </row>
     <row r="55">
@@ -2430,10 +1845,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.282</v>
       </c>
     </row>
     <row r="56">
@@ -2444,10 +1859,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
-        <v>110</v>
+        <v>59</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.261</v>
       </c>
     </row>
     <row r="57">
@@ -2458,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
+        <v>60</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.287</v>
       </c>
     </row>
     <row r="58">
@@ -2472,10 +1887,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
+        <v>61</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.258</v>
       </c>
     </row>
     <row r="59">
@@ -2486,10 +1901,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
+        <v>62</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.244</v>
       </c>
     </row>
     <row r="60">
@@ -2500,10 +1915,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.256</v>
       </c>
     </row>
     <row r="61">
@@ -2514,10 +1929,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" t="s">
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.267</v>
       </c>
     </row>
     <row r="62">
@@ -2528,10 +1943,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" t="s">
-        <v>122</v>
+        <v>65</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.265</v>
       </c>
     </row>
     <row r="63">
@@ -2542,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" t="s">
-        <v>122</v>
+        <v>66</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.265</v>
       </c>
     </row>
     <row r="64">
@@ -2556,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.231</v>
       </c>
     </row>
     <row r="65">
@@ -2570,10 +1985,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" t="s">
-        <v>127</v>
+        <v>68</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="66">
@@ -2584,10 +1999,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.259</v>
       </c>
     </row>
     <row r="67">
@@ -2598,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>131</v>
+        <v>70</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.239</v>
       </c>
     </row>
     <row r="68">
@@ -2612,10 +2027,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="69">
@@ -2626,10 +2041,10 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" t="s">
-        <v>135</v>
+        <v>72</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.254</v>
       </c>
     </row>
     <row r="70">
@@ -2640,10 +2055,10 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" t="s">
-        <v>137</v>
+        <v>73</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.276</v>
       </c>
     </row>
     <row r="71">
@@ -2654,10 +2069,10 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
+        <v>74</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.302</v>
       </c>
     </row>
     <row r="72">
@@ -2668,10 +2083,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" t="s">
-        <v>141</v>
+        <v>75</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.277</v>
       </c>
     </row>
     <row r="73">
@@ -2682,10 +2097,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" t="s">
-        <v>133</v>
+        <v>76</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="74">
@@ -2696,10 +2111,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.241</v>
       </c>
     </row>
     <row r="75">
@@ -2710,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" t="s">
-        <v>146</v>
+        <v>78</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.266</v>
       </c>
     </row>
     <row r="76">
@@ -2724,10 +2139,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" t="s">
-        <v>148</v>
+        <v>79</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.269</v>
       </c>
     </row>
     <row r="77">
@@ -2738,10 +2153,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.261</v>
       </c>
     </row>
     <row r="78">
@@ -2752,10 +2167,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" t="s">
-        <v>139</v>
+        <v>81</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.302</v>
       </c>
     </row>
     <row r="79">
@@ -2766,10 +2181,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.305</v>
       </c>
     </row>
     <row r="80">
@@ -2780,10 +2195,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.306</v>
       </c>
     </row>
     <row r="81">
@@ -2794,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81" t="s">
-        <v>105</v>
+        <v>84</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.296</v>
       </c>
     </row>
     <row r="82">
@@ -2808,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.294</v>
       </c>
     </row>
     <row r="83">
@@ -2822,10 +2237,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" t="s">
-        <v>158</v>
+        <v>86</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.312</v>
       </c>
     </row>
     <row r="84">
@@ -2836,10 +2251,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.304</v>
       </c>
     </row>
     <row r="85">
@@ -2850,10 +2265,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" t="s">
-        <v>161</v>
+        <v>88</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="86">
@@ -2864,10 +2279,10 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" t="s">
-        <v>163</v>
+        <v>89</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.334</v>
       </c>
     </row>
     <row r="87">
@@ -2878,10 +2293,10 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
-      </c>
-      <c r="D87" t="s">
-        <v>165</v>
+        <v>90</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.356</v>
       </c>
     </row>
     <row r="88">
@@ -2892,10 +2307,10 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" t="s">
-        <v>167</v>
+        <v>91</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.372</v>
       </c>
     </row>
     <row r="89">
@@ -2906,10 +2321,10 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" t="s">
-        <v>169</v>
+        <v>92</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.401</v>
       </c>
     </row>
     <row r="90">
@@ -2920,10 +2335,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.347</v>
       </c>
     </row>
     <row r="91">
@@ -2934,10 +2349,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" t="s">
-        <v>173</v>
+        <v>94</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="92">
@@ -2948,10 +2363,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" t="s">
-        <v>175</v>
+        <v>95</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.454</v>
       </c>
     </row>
     <row r="93">
@@ -2962,10 +2377,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" t="s">
-        <v>177</v>
+        <v>96</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.433</v>
       </c>
     </row>
     <row r="94">
@@ -2976,10 +2391,10 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" t="s">
-        <v>179</v>
+        <v>97</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.455</v>
       </c>
     </row>
     <row r="95">
@@ -2990,10 +2405,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" t="s">
-        <v>181</v>
+        <v>98</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="96">
@@ -3004,10 +2419,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" t="s">
-        <v>183</v>
+        <v>99</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.512</v>
       </c>
     </row>
     <row r="97">
@@ -3018,10 +2433,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" t="s">
-        <v>185</v>
+        <v>100</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.482</v>
       </c>
     </row>
     <row r="98">
@@ -3032,10 +2447,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
-      </c>
-      <c r="D98" t="s">
-        <v>187</v>
+        <v>101</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.497</v>
       </c>
     </row>
     <row r="99">
@@ -3046,10 +2461,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" t="s">
-        <v>189</v>
+        <v>102</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.456</v>
       </c>
     </row>
     <row r="100">
@@ -3060,10 +2475,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
-      </c>
-      <c r="D100" t="s">
-        <v>191</v>
+        <v>103</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.471</v>
       </c>
     </row>
     <row r="101">
@@ -3074,10 +2489,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" t="s">
-        <v>193</v>
+        <v>104</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.473</v>
       </c>
     </row>
     <row r="102">
@@ -3088,10 +2503,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" t="s">
-        <v>195</v>
+        <v>105</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.466</v>
       </c>
     </row>
     <row r="103">
@@ -3102,10 +2517,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
-      </c>
-      <c r="D103" t="s">
-        <v>197</v>
+        <v>106</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.509</v>
       </c>
     </row>
     <row r="104">
@@ -3116,10 +2531,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
-      </c>
-      <c r="D104" t="s">
-        <v>199</v>
+        <v>107</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.484</v>
       </c>
     </row>
     <row r="105">
@@ -3130,10 +2545,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
-      </c>
-      <c r="D105" t="s">
-        <v>201</v>
+        <v>108</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.489</v>
       </c>
     </row>
     <row r="106">
@@ -3144,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
-      </c>
-      <c r="D106" t="s">
-        <v>203</v>
+        <v>109</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.528</v>
       </c>
     </row>
     <row r="107">
@@ -3158,10 +2573,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" t="s">
-        <v>205</v>
+        <v>110</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.543</v>
       </c>
     </row>
     <row r="108">
@@ -3172,10 +2587,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
-      </c>
-      <c r="D108" t="s">
-        <v>207</v>
+        <v>111</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.518</v>
       </c>
     </row>
     <row r="109">
@@ -3186,10 +2601,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D109" t="s">
-        <v>209</v>
+        <v>112</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="110">
@@ -3200,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" t="s">
-        <v>211</v>
+        <v>113</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.529</v>
       </c>
     </row>
     <row r="111">
@@ -3214,10 +2629,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" t="s">
-        <v>213</v>
+        <v>114</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.504</v>
       </c>
     </row>
     <row r="112">
@@ -3228,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
-      </c>
-      <c r="D112" t="s">
-        <v>215</v>
+        <v>115</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.544</v>
       </c>
     </row>
     <row r="113">
@@ -3242,10 +2657,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
-      </c>
-      <c r="D113" t="s">
-        <v>181</v>
+        <v>116</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="114">
@@ -3256,10 +2671,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
-      </c>
-      <c r="D114" t="s">
-        <v>218</v>
+        <v>117</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.556</v>
       </c>
     </row>
     <row r="115">
@@ -3270,10 +2685,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
-      </c>
-      <c r="D115" t="s">
-        <v>220</v>
+        <v>118</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.503</v>
       </c>
     </row>
     <row r="116">
@@ -3284,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
-      </c>
-      <c r="D116" t="s">
-        <v>222</v>
+        <v>119</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.495</v>
       </c>
     </row>
     <row r="117">
@@ -3298,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
-      </c>
-      <c r="D117" t="s">
-        <v>224</v>
+        <v>120</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.572</v>
       </c>
     </row>
     <row r="118">
@@ -3312,10 +2727,10 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
-      </c>
-      <c r="D118" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.543</v>
       </c>
     </row>
     <row r="119">
@@ -3326,10 +2741,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
-      </c>
-      <c r="D119" t="s">
-        <v>227</v>
+        <v>122</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.549</v>
       </c>
     </row>
     <row r="120">
@@ -3340,10 +2755,10 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" t="s">
-        <v>229</v>
+        <v>123</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.533</v>
       </c>
     </row>
     <row r="121">
@@ -3354,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
-      </c>
-      <c r="D121" t="s">
-        <v>231</v>
+        <v>124</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.541</v>
       </c>
     </row>
     <row r="122">
@@ -3368,10 +2783,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
-      </c>
-      <c r="D122" t="s">
-        <v>233</v>
+        <v>125</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.546</v>
       </c>
     </row>
     <row r="123">
@@ -3382,10 +2797,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" t="s">
-        <v>235</v>
+        <v>126</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="124">
@@ -3396,10 +2811,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
-      </c>
-      <c r="D124" t="s">
-        <v>237</v>
+        <v>127</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.545</v>
       </c>
     </row>
     <row r="125">
@@ -3410,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
-      </c>
-      <c r="D125" t="s">
-        <v>239</v>
+        <v>128</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.539</v>
       </c>
     </row>
     <row r="126">
@@ -3424,10 +2839,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
-      </c>
-      <c r="D126" t="s">
-        <v>241</v>
+        <v>129</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.483</v>
       </c>
     </row>
     <row r="127">
@@ -3438,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>242</v>
-      </c>
-      <c r="D127" t="s">
-        <v>243</v>
+        <v>130</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.515</v>
       </c>
     </row>
     <row r="128">
@@ -3452,10 +2867,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
-      </c>
-      <c r="D128" t="s">
-        <v>245</v>
+        <v>131</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.487</v>
       </c>
     </row>
     <row r="129">
@@ -3466,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>246</v>
-      </c>
-      <c r="D129" t="s">
-        <v>247</v>
+        <v>132</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.428</v>
       </c>
     </row>
     <row r="130">
@@ -3480,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
-      </c>
-      <c r="D130" t="s">
-        <v>249</v>
+        <v>133</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.415</v>
       </c>
     </row>
     <row r="131">
@@ -3494,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
-      </c>
-      <c r="D131" t="s">
-        <v>251</v>
+        <v>134</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="132">
@@ -3508,10 +2923,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>252</v>
-      </c>
-      <c r="D132" t="s">
-        <v>199</v>
+        <v>135</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.484</v>
       </c>
     </row>
     <row r="133">
@@ -3522,10 +2937,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>253</v>
-      </c>
-      <c r="D133" t="s">
-        <v>254</v>
+        <v>136</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.437</v>
       </c>
     </row>
     <row r="134">
@@ -3536,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>255</v>
-      </c>
-      <c r="D134" t="s">
-        <v>256</v>
+        <v>137</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.429</v>
       </c>
     </row>
     <row r="135">
@@ -3550,10 +2965,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>257</v>
-      </c>
-      <c r="D135" t="s">
-        <v>258</v>
+        <v>138</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.478</v>
       </c>
     </row>
     <row r="136">
@@ -3564,10 +2979,10 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>259</v>
-      </c>
-      <c r="D136" t="s">
-        <v>260</v>
+        <v>139</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.463</v>
       </c>
     </row>
     <row r="137">
@@ -3578,10 +2993,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>261</v>
-      </c>
-      <c r="D137" t="s">
-        <v>262</v>
+        <v>140</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.496</v>
       </c>
     </row>
     <row r="138">
@@ -3592,10 +3007,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>263</v>
-      </c>
-      <c r="D138" t="s">
-        <v>201</v>
+        <v>141</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.489</v>
       </c>
     </row>
     <row r="139">
@@ -3606,10 +3021,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>264</v>
-      </c>
-      <c r="D139" t="s">
-        <v>265</v>
+        <v>142</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.408</v>
       </c>
     </row>
     <row r="140">
@@ -3620,10 +3035,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>266</v>
-      </c>
-      <c r="D140" t="s">
-        <v>267</v>
+        <v>143</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.445</v>
       </c>
     </row>
     <row r="141">
@@ -3634,10 +3049,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
-      </c>
-      <c r="D141" t="s">
-        <v>269</v>
+        <v>144</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.426</v>
       </c>
     </row>
     <row r="142">
@@ -3648,10 +3063,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>270</v>
-      </c>
-      <c r="D142" t="s">
-        <v>245</v>
+        <v>145</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.487</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3077,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>271</v>
-      </c>
-      <c r="D143" t="s">
-        <v>272</v>
+        <v>146</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.502</v>
       </c>
     </row>
     <row r="144">
@@ -3676,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>273</v>
-      </c>
-      <c r="D144" t="s">
-        <v>258</v>
+        <v>147</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.478</v>
       </c>
     </row>
     <row r="145">
@@ -3690,10 +3105,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>274</v>
-      </c>
-      <c r="D145" t="s">
-        <v>260</v>
+        <v>148</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.463</v>
       </c>
     </row>
     <row r="146">
@@ -3704,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>275</v>
-      </c>
-      <c r="D146" t="s">
-        <v>276</v>
+        <v>149</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.418</v>
       </c>
     </row>
     <row r="147">
@@ -3718,10 +3133,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D147" t="s">
-        <v>193</v>
+        <v>150</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.473</v>
       </c>
     </row>
     <row r="148">
@@ -3732,10 +3147,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>278</v>
-      </c>
-      <c r="D148" t="s">
-        <v>279</v>
+        <v>151</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.462</v>
       </c>
     </row>
     <row r="149">
@@ -3746,10 +3161,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
-      </c>
-      <c r="D149" t="s">
-        <v>281</v>
+        <v>152</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.444</v>
       </c>
     </row>
     <row r="150">
@@ -3760,10 +3175,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>282</v>
-      </c>
-      <c r="D150" t="s">
-        <v>283</v>
+        <v>153</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.499</v>
       </c>
     </row>
     <row r="151">
@@ -3774,10 +3189,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>284</v>
-      </c>
-      <c r="D151" t="s">
-        <v>187</v>
+        <v>154</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.497</v>
       </c>
     </row>
     <row r="152">
@@ -3788,10 +3203,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>285</v>
-      </c>
-      <c r="D152" t="s">
-        <v>262</v>
+        <v>155</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.496</v>
       </c>
     </row>
     <row r="153">
@@ -3802,10 +3217,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>286</v>
-      </c>
-      <c r="D153" t="s">
-        <v>201</v>
+        <v>156</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.489</v>
       </c>
     </row>
     <row r="154">
@@ -3816,10 +3231,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>287</v>
-      </c>
-      <c r="D154" t="s">
-        <v>288</v>
+        <v>157</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="155">
@@ -3830,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>289</v>
-      </c>
-      <c r="D155" t="s">
-        <v>199</v>
+        <v>158</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.484</v>
       </c>
     </row>
     <row r="156">
@@ -3844,10 +3259,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>290</v>
-      </c>
-      <c r="D156" t="s">
-        <v>291</v>
+        <v>159</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.451</v>
       </c>
     </row>
     <row r="157">
@@ -3858,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>292</v>
-      </c>
-      <c r="D157" t="s">
-        <v>293</v>
+        <v>160</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="158">
@@ -3872,10 +3287,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>294</v>
-      </c>
-      <c r="D158" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.509</v>
       </c>
     </row>
     <row r="159">
@@ -3886,10 +3301,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>295</v>
-      </c>
-      <c r="D159" t="s">
-        <v>258</v>
+        <v>162</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.478</v>
       </c>
     </row>
     <row r="160">
@@ -3900,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>296</v>
-      </c>
-      <c r="D160" t="s">
-        <v>272</v>
+        <v>163</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.502</v>
       </c>
     </row>
     <row r="161">
@@ -3914,10 +3329,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>297</v>
-      </c>
-      <c r="D161" t="s">
-        <v>298</v>
+        <v>164</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.511</v>
       </c>
     </row>
     <row r="162">
@@ -3928,10 +3343,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>299</v>
-      </c>
-      <c r="D162" t="s">
-        <v>300</v>
+        <v>165</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.523</v>
       </c>
     </row>
     <row r="163">
@@ -3942,10 +3357,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>301</v>
-      </c>
-      <c r="D163" t="s">
-        <v>302</v>
+        <v>166</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.514</v>
       </c>
     </row>
     <row r="164">
@@ -3956,10 +3371,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>303</v>
-      </c>
-      <c r="D164" t="s">
-        <v>304</v>
+        <v>167</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.519</v>
       </c>
     </row>
     <row r="165">
@@ -3970,10 +3385,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
-      </c>
-      <c r="D165" t="s">
-        <v>298</v>
+        <v>168</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.511</v>
       </c>
     </row>
     <row r="166">
@@ -3984,10 +3399,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>306</v>
-      </c>
-      <c r="D166" t="s">
-        <v>245</v>
+        <v>169</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.487</v>
       </c>
     </row>
     <row r="167">
@@ -3998,10 +3413,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>307</v>
-      </c>
-      <c r="D167" t="s">
-        <v>281</v>
+        <v>170</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.444</v>
       </c>
     </row>
     <row r="168">
@@ -4012,10 +3427,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>308</v>
-      </c>
-      <c r="D168" t="s">
-        <v>309</v>
+        <v>171</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.501</v>
       </c>
     </row>
     <row r="169">
@@ -4026,10 +3441,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>310</v>
-      </c>
-      <c r="D169" t="s">
-        <v>195</v>
+        <v>172</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.466</v>
       </c>
     </row>
     <row r="170">
@@ -4040,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>311</v>
-      </c>
-      <c r="D170" t="s">
-        <v>193</v>
+        <v>173</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.473</v>
       </c>
     </row>
     <row r="171">
@@ -4054,10 +3469,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>312</v>
-      </c>
-      <c r="D171" t="s">
-        <v>313</v>
+        <v>174</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.486</v>
       </c>
     </row>
     <row r="172">
@@ -4068,10 +3483,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>314</v>
-      </c>
-      <c r="D172" t="s">
-        <v>315</v>
+        <v>175</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.468</v>
       </c>
     </row>
     <row r="173">
@@ -4082,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>316</v>
-      </c>
-      <c r="D173" t="s">
-        <v>260</v>
+        <v>176</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.463</v>
       </c>
     </row>
     <row r="174">
@@ -4096,10 +3511,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>317</v>
-      </c>
-      <c r="D174" t="s">
-        <v>318</v>
+        <v>177</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.479</v>
       </c>
     </row>
     <row r="175">
@@ -4110,10 +3525,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>319</v>
-      </c>
-      <c r="D175" t="s">
-        <v>320</v>
+        <v>178</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="176">
@@ -4124,10 +3539,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>321</v>
-      </c>
-      <c r="D176" t="s">
-        <v>322</v>
+        <v>179</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.562</v>
       </c>
     </row>
     <row r="177">
@@ -4138,10 +3553,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
-      </c>
-      <c r="D177" t="s">
-        <v>302</v>
+        <v>180</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.514</v>
       </c>
     </row>
     <row r="178">
@@ -4152,10 +3567,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>324</v>
-      </c>
-      <c r="D178" t="s">
-        <v>245</v>
+        <v>181</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.487</v>
       </c>
     </row>
     <row r="179">
@@ -4166,10 +3581,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>325</v>
-      </c>
-      <c r="D179" t="s">
-        <v>326</v>
+        <v>182</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.538</v>
       </c>
     </row>
     <row r="180">
@@ -4180,10 +3595,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>327</v>
-      </c>
-      <c r="D180" t="s">
-        <v>251</v>
+        <v>183</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="181">
@@ -4194,10 +3609,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>328</v>
-      </c>
-      <c r="D181" t="s">
-        <v>329</v>
+        <v>184</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="182">
@@ -4208,10 +3623,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>330</v>
-      </c>
-      <c r="D182" t="s">
-        <v>331</v>
+        <v>185</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.409</v>
       </c>
     </row>
     <row r="183">
@@ -4222,10 +3637,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>332</v>
-      </c>
-      <c r="D183" t="s">
-        <v>333</v>
+        <v>186</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.362</v>
       </c>
     </row>
     <row r="184">
@@ -4236,10 +3651,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>334</v>
-      </c>
-      <c r="D184" t="s">
-        <v>335</v>
+        <v>187</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="185">
@@ -4250,10 +3665,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>336</v>
-      </c>
-      <c r="D185" t="s">
-        <v>337</v>
+        <v>188</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.571</v>
       </c>
     </row>
     <row r="186">
@@ -4264,10 +3679,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>338</v>
-      </c>
-      <c r="D186" t="s">
-        <v>339</v>
+        <v>189</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.659</v>
       </c>
     </row>
     <row r="187">
@@ -4278,10 +3693,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
-      </c>
-      <c r="D187" t="s">
-        <v>341</v>
+        <v>190</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.747</v>
       </c>
     </row>
     <row r="188">
@@ -4292,10 +3707,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>342</v>
-      </c>
-      <c r="D188" t="s">
-        <v>343</v>
+        <v>191</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.712</v>
       </c>
     </row>
     <row r="189">
@@ -4306,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>344</v>
-      </c>
-      <c r="D189" t="s">
-        <v>345</v>
+        <v>192</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.609</v>
       </c>
     </row>
     <row r="190">
@@ -4320,10 +3735,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>346</v>
-      </c>
-      <c r="D190" t="s">
-        <v>347</v>
+        <v>193</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.542</v>
       </c>
     </row>
     <row r="191">
@@ -4334,10 +3749,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>348</v>
-      </c>
-      <c r="D191" t="s">
-        <v>349</v>
+        <v>194</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="192">
@@ -4348,10 +3763,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>350</v>
-      </c>
-      <c r="D192" t="s">
-        <v>351</v>
+        <v>195</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.639</v>
       </c>
     </row>
     <row r="193">
@@ -4362,10 +3777,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>352</v>
-      </c>
-      <c r="D193" t="s">
-        <v>353</v>
+        <v>196</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.621</v>
       </c>
     </row>
     <row r="194">
@@ -4376,10 +3791,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>354</v>
-      </c>
-      <c r="D194" t="s">
-        <v>355</v>
+        <v>197</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.595</v>
       </c>
     </row>
     <row r="195">
@@ -4390,10 +3805,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>356</v>
-      </c>
-      <c r="D195" t="s">
-        <v>357</v>
+        <v>198</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.583</v>
       </c>
     </row>
     <row r="196">
@@ -4404,10 +3819,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>358</v>
-      </c>
-      <c r="D196" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.543</v>
       </c>
     </row>
     <row r="197">
@@ -4418,10 +3833,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
-      </c>
-      <c r="D197" t="s">
-        <v>243</v>
+        <v>200</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.515</v>
       </c>
     </row>
     <row r="198">
@@ -4432,10 +3847,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>360</v>
-      </c>
-      <c r="D198" t="s">
-        <v>313</v>
+        <v>201</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.486</v>
       </c>
     </row>
     <row r="199">
@@ -4446,10 +3861,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>361</v>
-      </c>
-      <c r="D199" t="s">
-        <v>362</v>
+        <v>202</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.474</v>
       </c>
     </row>
     <row r="200">
@@ -4460,10 +3875,10 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
-      </c>
-      <c r="D200" t="s">
-        <v>364</v>
+        <v>203</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.435</v>
       </c>
     </row>
     <row r="201">
@@ -4474,10 +3889,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>365</v>
-      </c>
-      <c r="D201" t="s">
-        <v>366</v>
+        <v>204</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.472</v>
       </c>
     </row>
     <row r="202">
@@ -4488,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>367</v>
-      </c>
-      <c r="D202" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.504</v>
       </c>
     </row>
     <row r="203">
@@ -4502,10 +3917,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>368</v>
-      </c>
-      <c r="D203" t="s">
-        <v>300</v>
+        <v>206</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.523</v>
       </c>
     </row>
     <row r="204">
@@ -4516,10 +3931,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>369</v>
-      </c>
-      <c r="D204" t="s">
-        <v>357</v>
+        <v>207</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.583</v>
       </c>
     </row>
     <row r="205">
@@ -4530,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
-      </c>
-      <c r="D205" t="s">
-        <v>371</v>
+        <v>208</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.606</v>
       </c>
     </row>
     <row r="206">
@@ -4544,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>372</v>
-      </c>
-      <c r="D206" t="s">
-        <v>373</v>
+        <v>209</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.622</v>
       </c>
     </row>
     <row r="207">
@@ -4558,10 +3973,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>374</v>
-      </c>
-      <c r="D207" t="s">
-        <v>375</v>
+        <v>210</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.632</v>
       </c>
     </row>
     <row r="208">
@@ -4572,10 +3987,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>376</v>
-      </c>
-      <c r="D208" t="s">
-        <v>377</v>
+        <v>211</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.724</v>
       </c>
     </row>
     <row r="209">
@@ -4586,10 +4001,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>378</v>
-      </c>
-      <c r="D209" t="s">
-        <v>379</v>
+        <v>212</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.794</v>
       </c>
     </row>
     <row r="210">
@@ -4600,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>380</v>
-      </c>
-      <c r="D210" t="s">
-        <v>381</v>
+        <v>213</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.824</v>
       </c>
     </row>
     <row r="211">
@@ -4614,10 +4029,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>382</v>
-      </c>
-      <c r="D211" t="s">
-        <v>383</v>
+        <v>214</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.826</v>
       </c>
     </row>
     <row r="212">
@@ -4628,10 +4043,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>384</v>
-      </c>
-      <c r="D212" t="s">
-        <v>385</v>
+        <v>215</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="213">
@@ -4642,10 +4057,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>386</v>
-      </c>
-      <c r="D213" t="s">
-        <v>387</v>
+        <v>216</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.879</v>
       </c>
     </row>
     <row r="214">
@@ -4656,10 +4071,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>388</v>
-      </c>
-      <c r="D214" t="s">
-        <v>389</v>
+        <v>217</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.891</v>
       </c>
     </row>
     <row r="215">
@@ -4670,10 +4085,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>390</v>
-      </c>
-      <c r="D215" t="s">
-        <v>391</v>
+        <v>218</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.863</v>
       </c>
     </row>
     <row r="216">
@@ -4684,10 +4099,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>392</v>
-      </c>
-      <c r="D216" t="s">
-        <v>393</v>
+        <v>219</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.843</v>
       </c>
     </row>
     <row r="217">
@@ -4698,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>394</v>
-      </c>
-      <c r="D217" t="s">
-        <v>395</v>
+        <v>220</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="218">
@@ -4712,10 +4127,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>396</v>
-      </c>
-      <c r="D218" t="s">
-        <v>397</v>
+        <v>221</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.855</v>
       </c>
     </row>
     <row r="219">
@@ -4726,10 +4141,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>398</v>
-      </c>
-      <c r="D219" t="s">
-        <v>399</v>
+        <v>222</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.894</v>
       </c>
     </row>
     <row r="220">
@@ -4740,10 +4155,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>400</v>
-      </c>
-      <c r="D220" t="s">
-        <v>401</v>
+        <v>223</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.868</v>
       </c>
     </row>
     <row r="221">
@@ -4754,10 +4169,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>402</v>
-      </c>
-      <c r="D221" t="s">
-        <v>403</v>
+        <v>224</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.873</v>
       </c>
     </row>
     <row r="222">
@@ -4768,10 +4183,10 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>404</v>
-      </c>
-      <c r="D222" t="s">
-        <v>405</v>
+        <v>225</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="223">
@@ -4782,10 +4197,10 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>406</v>
-      </c>
-      <c r="D223" t="s">
-        <v>407</v>
+        <v>226</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.953</v>
       </c>
     </row>
     <row r="224">
@@ -4796,10 +4211,10 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>408</v>
-      </c>
-      <c r="D224" t="s">
-        <v>389</v>
+        <v>227</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.891</v>
       </c>
     </row>
     <row r="225">
@@ -4810,10 +4225,10 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>409</v>
-      </c>
-      <c r="D225" t="s">
-        <v>410</v>
+        <v>228</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.958</v>
       </c>
     </row>
     <row r="226">
@@ -4824,10 +4239,10 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>411</v>
-      </c>
-      <c r="D226" t="s">
-        <v>412</v>
+        <v>229</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.901</v>
       </c>
     </row>
     <row r="227">
@@ -4838,10 +4253,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>413</v>
-      </c>
-      <c r="D227" t="s">
-        <v>414</v>
+        <v>230</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.926</v>
       </c>
     </row>
     <row r="228">
@@ -4852,10 +4267,10 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>415</v>
-      </c>
-      <c r="D228" t="s">
-        <v>416</v>
+        <v>231</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.976</v>
       </c>
     </row>
     <row r="229">
@@ -4866,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>417</v>
-      </c>
-      <c r="D229" t="s">
-        <v>418</v>
+        <v>232</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.955</v>
       </c>
     </row>
     <row r="230">
@@ -4880,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>419</v>
-      </c>
-      <c r="D230" t="s">
-        <v>420</v>
+        <v>233</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.987</v>
       </c>
     </row>
     <row r="231">
@@ -4894,10 +4309,10 @@
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>421</v>
-      </c>
-      <c r="D231" t="s">
-        <v>422</v>
+        <v>234</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.951</v>
       </c>
     </row>
     <row r="232">
@@ -4908,10 +4323,10 @@
         <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>423</v>
-      </c>
-      <c r="D232" t="s">
-        <v>424</v>
+        <v>235</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.991</v>
       </c>
     </row>
     <row r="233">
@@ -4922,10 +4337,10 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>425</v>
-      </c>
-      <c r="D233" t="s">
-        <v>407</v>
+        <v>236</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.953</v>
       </c>
     </row>
     <row r="234">
@@ -4936,10 +4351,10 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>426</v>
-      </c>
-      <c r="D234" t="s">
-        <v>427</v>
+        <v>237</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2.013</v>
       </c>
     </row>
     <row r="235">
@@ -4950,10 +4365,10 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>428</v>
-      </c>
-      <c r="D235" t="s">
-        <v>429</v>
+        <v>238</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.007</v>
       </c>
     </row>
     <row r="236">
@@ -4964,10 +4379,10 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>430</v>
-      </c>
-      <c r="D236" t="s">
-        <v>431</v>
+        <v>239</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.988</v>
       </c>
     </row>
     <row r="237">
@@ -4978,10 +4393,10 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>432</v>
-      </c>
-      <c r="D237" t="s">
-        <v>431</v>
+        <v>240</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.988</v>
       </c>
     </row>
     <row r="238">
@@ -4992,10 +4407,10 @@
         <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>433</v>
-      </c>
-      <c r="D238" t="s">
-        <v>434</v>
+        <v>241</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.979</v>
       </c>
     </row>
     <row r="239">
@@ -5006,10 +4421,10 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>435</v>
-      </c>
-      <c r="D239" t="s">
-        <v>420</v>
+        <v>242</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.987</v>
       </c>
     </row>
     <row r="240">
@@ -5020,10 +4435,10 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>436</v>
-      </c>
-      <c r="D240" t="s">
-        <v>437</v>
+        <v>243</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.076</v>
       </c>
     </row>
     <row r="241">
@@ -5034,10 +4449,10 @@
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>438</v>
-      </c>
-      <c r="D241" t="s">
-        <v>439</v>
+        <v>244</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2.061</v>
       </c>
     </row>
     <row r="242">
@@ -5048,10 +4463,10 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>440</v>
-      </c>
-      <c r="D242" t="s">
-        <v>439</v>
+        <v>245</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.061</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Average_Price_Chicken_Fresh_Whole_Cost_per_Pound4536_Grams_in_US_City_Average_data.xlsx
+++ b/data/raw/Average_Price_Chicken_Fresh_Whole_Cost_per_Pound4536_Grams_in_US_City_Average_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -27,42 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">2006-01-01</t>
@@ -1106,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.026</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="3">
@@ -1120,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.038</v>
+        <v>1.045</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.061</v>
+        <v>1.047</v>
       </c>
     </row>
     <row r="5">
@@ -1148,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>1.054</v>
       </c>
     </row>
     <row r="6">
@@ -1162,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.052</v>
+        <v>1.034</v>
       </c>
     </row>
     <row r="7">
@@ -1176,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.075</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="8">
@@ -1190,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.067</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>1.042</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="10">
@@ -1218,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.056</v>
+        <v>1.063</v>
       </c>
     </row>
     <row r="11">
@@ -1232,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>1.062</v>
+        <v>1.038</v>
       </c>
     </row>
     <row r="12">
@@ -1246,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>1.059</v>
+        <v>1.049</v>
       </c>
     </row>
     <row r="13">
@@ -1260,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>1.061</v>
+        <v>1.057</v>
       </c>
     </row>
     <row r="14">
@@ -1274,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>1.062</v>
+        <v>1.033</v>
       </c>
     </row>
     <row r="15">
@@ -1288,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>1.045</v>
+        <v>1.039</v>
       </c>
     </row>
     <row r="16">
@@ -1302,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>1.047</v>
+        <v>1.064</v>
       </c>
     </row>
     <row r="17">
@@ -1316,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>1.054</v>
+        <v>1.115</v>
       </c>
     </row>
     <row r="18">
@@ -1330,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>1.034</v>
+        <v>1.118</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>1.055</v>
+        <v>1.134</v>
       </c>
     </row>
     <row r="20">
@@ -1358,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="21">
@@ -1372,7 +1336,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>1.048</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="22">
@@ -1386,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>1.063</v>
+        <v>1.142</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1364,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>1.038</v>
+        <v>1.135</v>
       </c>
     </row>
     <row r="24">
@@ -1414,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>1.049</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="25">
@@ -1428,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>1.057</v>
+        <v>1.166</v>
       </c>
     </row>
     <row r="26">
@@ -1442,7 +1406,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>1.033</v>
+        <v>1.163</v>
       </c>
     </row>
     <row r="27">
@@ -1456,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>1.039</v>
+        <v>1.159</v>
       </c>
     </row>
     <row r="28">
@@ -1470,7 +1434,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>1.064</v>
+        <v>1.168</v>
       </c>
     </row>
     <row r="29">
@@ -1484,7 +1448,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>1.115</v>
+        <v>1.176</v>
       </c>
     </row>
     <row r="30">
@@ -1498,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>1.118</v>
+        <v>1.194</v>
       </c>
     </row>
     <row r="31">
@@ -1512,7 +1476,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>1.134</v>
+        <v>1.181</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1490,7 @@
         <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>1.13</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="33">
@@ -1540,7 +1504,7 @@
         <v>36</v>
       </c>
       <c r="D33" t="n">
-        <v>1.145</v>
+        <v>1.223</v>
       </c>
     </row>
     <row r="34">
@@ -1554,7 +1518,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>1.142</v>
+        <v>1.214</v>
       </c>
     </row>
     <row r="35">
@@ -1568,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>1.135</v>
+        <v>1.205</v>
       </c>
     </row>
     <row r="36">
@@ -1582,7 +1546,7 @@
         <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>1.161</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="37">
@@ -1596,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>1.166</v>
+        <v>1.305</v>
       </c>
     </row>
     <row r="38">
@@ -1610,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>1.163</v>
+        <v>1.292</v>
       </c>
     </row>
     <row r="39">
@@ -1624,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>1.159</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="40">
@@ -1638,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="D40" t="n">
-        <v>1.168</v>
+        <v>1.301</v>
       </c>
     </row>
     <row r="41">
@@ -1652,7 +1616,7 @@
         <v>44</v>
       </c>
       <c r="D41" t="n">
-        <v>1.176</v>
+        <v>1.296</v>
       </c>
     </row>
     <row r="42">
@@ -1666,7 +1630,7 @@
         <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>1.194</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="43">
@@ -1680,7 +1644,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="n">
-        <v>1.181</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1658,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="n">
-        <v>1.191</v>
+        <v>1.261</v>
       </c>
     </row>
     <row r="45">
@@ -1708,7 +1672,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="n">
-        <v>1.223</v>
+        <v>1.287</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1686,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="n">
-        <v>1.214</v>
+        <v>1.258</v>
       </c>
     </row>
     <row r="47">
@@ -1736,7 +1700,7 @@
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>1.205</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="48">
@@ -1750,7 +1714,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="n">
-        <v>1.304</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="49">
@@ -1764,7 +1728,7 @@
         <v>52</v>
       </c>
       <c r="D49" t="n">
-        <v>1.305</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="50">
@@ -1778,7 +1742,7 @@
         <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>1.292</v>
+        <v>1.265</v>
       </c>
     </row>
     <row r="51">
@@ -1792,7 +1756,7 @@
         <v>54</v>
       </c>
       <c r="D51" t="n">
-        <v>1.29</v>
+        <v>1.265</v>
       </c>
     </row>
     <row r="52">
@@ -1806,7 +1770,7 @@
         <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>1.301</v>
+        <v>1.231</v>
       </c>
     </row>
     <row r="53">
@@ -1820,7 +1784,7 @@
         <v>56</v>
       </c>
       <c r="D53" t="n">
-        <v>1.296</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="54">
@@ -1834,7 +1798,7 @@
         <v>57</v>
       </c>
       <c r="D54" t="n">
-        <v>1.304</v>
+        <v>1.259</v>
       </c>
     </row>
     <row r="55">
@@ -1848,7 +1812,7 @@
         <v>58</v>
       </c>
       <c r="D55" t="n">
-        <v>1.282</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="56">
@@ -1862,7 +1826,7 @@
         <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>1.261</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="57">
@@ -1876,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>1.287</v>
+        <v>1.254</v>
       </c>
     </row>
     <row r="58">
@@ -1890,7 +1854,7 @@
         <v>61</v>
       </c>
       <c r="D58" t="n">
-        <v>1.258</v>
+        <v>1.276</v>
       </c>
     </row>
     <row r="59">
@@ -1904,7 +1868,7 @@
         <v>62</v>
       </c>
       <c r="D59" t="n">
-        <v>1.244</v>
+        <v>1.302</v>
       </c>
     </row>
     <row r="60">
@@ -1918,7 +1882,7 @@
         <v>63</v>
       </c>
       <c r="D60" t="n">
-        <v>1.256</v>
+        <v>1.277</v>
       </c>
     </row>
     <row r="61">
@@ -1932,7 +1896,7 @@
         <v>64</v>
       </c>
       <c r="D61" t="n">
-        <v>1.267</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="62">
@@ -1946,7 +1910,7 @@
         <v>65</v>
       </c>
       <c r="D62" t="n">
-        <v>1.265</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="63">
@@ -1960,7 +1924,7 @@
         <v>66</v>
       </c>
       <c r="D63" t="n">
-        <v>1.265</v>
+        <v>1.266</v>
       </c>
     </row>
     <row r="64">
@@ -1974,7 +1938,7 @@
         <v>67</v>
       </c>
       <c r="D64" t="n">
-        <v>1.231</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="65">
@@ -1988,7 +1952,7 @@
         <v>68</v>
       </c>
       <c r="D65" t="n">
-        <v>1.23</v>
+        <v>1.261</v>
       </c>
     </row>
     <row r="66">
@@ -2002,7 +1966,7 @@
         <v>69</v>
       </c>
       <c r="D66" t="n">
-        <v>1.259</v>
+        <v>1.302</v>
       </c>
     </row>
     <row r="67">
@@ -2016,7 +1980,7 @@
         <v>70</v>
       </c>
       <c r="D67" t="n">
-        <v>1.239</v>
+        <v>1.305</v>
       </c>
     </row>
     <row r="68">
@@ -2030,7 +1994,7 @@
         <v>71</v>
       </c>
       <c r="D68" t="n">
-        <v>1.28</v>
+        <v>1.306</v>
       </c>
     </row>
     <row r="69">
@@ -2044,7 +2008,7 @@
         <v>72</v>
       </c>
       <c r="D69" t="n">
-        <v>1.254</v>
+        <v>1.296</v>
       </c>
     </row>
     <row r="70">
@@ -2058,7 +2022,7 @@
         <v>73</v>
       </c>
       <c r="D70" t="n">
-        <v>1.276</v>
+        <v>1.294</v>
       </c>
     </row>
     <row r="71">
@@ -2072,7 +2036,7 @@
         <v>74</v>
       </c>
       <c r="D71" t="n">
-        <v>1.302</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="72">
@@ -2086,7 +2050,7 @@
         <v>75</v>
       </c>
       <c r="D72" t="n">
-        <v>1.277</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="73">
@@ -2100,7 +2064,7 @@
         <v>76</v>
       </c>
       <c r="D73" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="74">
@@ -2114,7 +2078,7 @@
         <v>77</v>
       </c>
       <c r="D74" t="n">
-        <v>1.241</v>
+        <v>1.334</v>
       </c>
     </row>
     <row r="75">
@@ -2128,7 +2092,7 @@
         <v>78</v>
       </c>
       <c r="D75" t="n">
-        <v>1.266</v>
+        <v>1.356</v>
       </c>
     </row>
     <row r="76">
@@ -2142,7 +2106,7 @@
         <v>79</v>
       </c>
       <c r="D76" t="n">
-        <v>1.269</v>
+        <v>1.372</v>
       </c>
     </row>
     <row r="77">
@@ -2156,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="D77" t="n">
-        <v>1.261</v>
+        <v>1.401</v>
       </c>
     </row>
     <row r="78">
@@ -2170,7 +2134,7 @@
         <v>81</v>
       </c>
       <c r="D78" t="n">
-        <v>1.302</v>
+        <v>1.347</v>
       </c>
     </row>
     <row r="79">
@@ -2184,7 +2148,7 @@
         <v>82</v>
       </c>
       <c r="D79" t="n">
-        <v>1.305</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="80">
@@ -2198,7 +2162,7 @@
         <v>83</v>
       </c>
       <c r="D80" t="n">
-        <v>1.306</v>
+        <v>1.454</v>
       </c>
     </row>
     <row r="81">
@@ -2212,7 +2176,7 @@
         <v>84</v>
       </c>
       <c r="D81" t="n">
-        <v>1.296</v>
+        <v>1.433</v>
       </c>
     </row>
     <row r="82">
@@ -2226,7 +2190,7 @@
         <v>85</v>
       </c>
       <c r="D82" t="n">
-        <v>1.294</v>
+        <v>1.455</v>
       </c>
     </row>
     <row r="83">
@@ -2240,7 +2204,7 @@
         <v>86</v>
       </c>
       <c r="D83" t="n">
-        <v>1.312</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="84">
@@ -2254,7 +2218,7 @@
         <v>87</v>
       </c>
       <c r="D84" t="n">
-        <v>1.304</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="85">
@@ -2268,7 +2232,7 @@
         <v>88</v>
       </c>
       <c r="D85" t="n">
-        <v>1.34</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="86">
@@ -2282,7 +2246,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="n">
-        <v>1.334</v>
+        <v>1.497</v>
       </c>
     </row>
     <row r="87">
@@ -2296,7 +2260,7 @@
         <v>90</v>
       </c>
       <c r="D87" t="n">
-        <v>1.356</v>
+        <v>1.456</v>
       </c>
     </row>
     <row r="88">
@@ -2310,7 +2274,7 @@
         <v>91</v>
       </c>
       <c r="D88" t="n">
-        <v>1.372</v>
+        <v>1.471</v>
       </c>
     </row>
     <row r="89">
@@ -2324,7 +2288,7 @@
         <v>92</v>
       </c>
       <c r="D89" t="n">
-        <v>1.401</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="90">
@@ -2338,7 +2302,7 @@
         <v>93</v>
       </c>
       <c r="D90" t="n">
-        <v>1.347</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="91">
@@ -2352,7 +2316,7 @@
         <v>94</v>
       </c>
       <c r="D91" t="n">
-        <v>1.39</v>
+        <v>1.509</v>
       </c>
     </row>
     <row r="92">
@@ -2366,7 +2330,7 @@
         <v>95</v>
       </c>
       <c r="D92" t="n">
-        <v>1.454</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="93">
@@ -2380,7 +2344,7 @@
         <v>96</v>
       </c>
       <c r="D93" t="n">
-        <v>1.433</v>
+        <v>1.489</v>
       </c>
     </row>
     <row r="94">
@@ -2394,7 +2358,7 @@
         <v>97</v>
       </c>
       <c r="D94" t="n">
-        <v>1.455</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="95">
@@ -2408,7 +2372,7 @@
         <v>98</v>
       </c>
       <c r="D95" t="n">
-        <v>1.53</v>
+        <v>1.543</v>
       </c>
     </row>
     <row r="96">
@@ -2422,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="D96" t="n">
-        <v>1.512</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="97">
@@ -2436,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>1.482</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="98">
@@ -2450,7 +2414,7 @@
         <v>101</v>
       </c>
       <c r="D98" t="n">
-        <v>1.497</v>
+        <v>1.529</v>
       </c>
     </row>
     <row r="99">
@@ -2464,7 +2428,7 @@
         <v>102</v>
       </c>
       <c r="D99" t="n">
-        <v>1.456</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="100">
@@ -2478,7 +2442,7 @@
         <v>103</v>
       </c>
       <c r="D100" t="n">
-        <v>1.471</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="101">
@@ -2492,7 +2456,7 @@
         <v>104</v>
       </c>
       <c r="D101" t="n">
-        <v>1.473</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="102">
@@ -2506,7 +2470,7 @@
         <v>105</v>
       </c>
       <c r="D102" t="n">
-        <v>1.466</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="103">
@@ -2520,7 +2484,7 @@
         <v>106</v>
       </c>
       <c r="D103" t="n">
-        <v>1.509</v>
+        <v>1.503</v>
       </c>
     </row>
     <row r="104">
@@ -2534,7 +2498,7 @@
         <v>107</v>
       </c>
       <c r="D104" t="n">
-        <v>1.484</v>
+        <v>1.495</v>
       </c>
     </row>
     <row r="105">
@@ -2548,7 +2512,7 @@
         <v>108</v>
       </c>
       <c r="D105" t="n">
-        <v>1.489</v>
+        <v>1.572</v>
       </c>
     </row>
     <row r="106">
@@ -2562,7 +2526,7 @@
         <v>109</v>
       </c>
       <c r="D106" t="n">
-        <v>1.528</v>
+        <v>1.543</v>
       </c>
     </row>
     <row r="107">
@@ -2576,7 +2540,7 @@
         <v>110</v>
       </c>
       <c r="D107" t="n">
-        <v>1.543</v>
+        <v>1.549</v>
       </c>
     </row>
     <row r="108">
@@ -2590,7 +2554,7 @@
         <v>111</v>
       </c>
       <c r="D108" t="n">
-        <v>1.518</v>
+        <v>1.533</v>
       </c>
     </row>
     <row r="109">
@@ -2604,7 +2568,7 @@
         <v>112</v>
       </c>
       <c r="D109" t="n">
-        <v>1.52</v>
+        <v>1.541</v>
       </c>
     </row>
     <row r="110">
@@ -2618,7 +2582,7 @@
         <v>113</v>
       </c>
       <c r="D110" t="n">
-        <v>1.529</v>
+        <v>1.546</v>
       </c>
     </row>
     <row r="111">
@@ -2632,7 +2596,7 @@
         <v>114</v>
       </c>
       <c r="D111" t="n">
-        <v>1.504</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="112">
@@ -2646,7 +2610,7 @@
         <v>115</v>
       </c>
       <c r="D112" t="n">
-        <v>1.544</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="113">
@@ -2660,7 +2624,7 @@
         <v>116</v>
       </c>
       <c r="D113" t="n">
-        <v>1.53</v>
+        <v>1.539</v>
       </c>
     </row>
     <row r="114">
@@ -2674,7 +2638,7 @@
         <v>117</v>
       </c>
       <c r="D114" t="n">
-        <v>1.556</v>
+        <v>1.483</v>
       </c>
     </row>
     <row r="115">
@@ -2688,7 +2652,7 @@
         <v>118</v>
       </c>
       <c r="D115" t="n">
-        <v>1.503</v>
+        <v>1.515</v>
       </c>
     </row>
     <row r="116">
@@ -2702,7 +2666,7 @@
         <v>119</v>
       </c>
       <c r="D116" t="n">
-        <v>1.495</v>
+        <v>1.487</v>
       </c>
     </row>
     <row r="117">
@@ -2716,7 +2680,7 @@
         <v>120</v>
       </c>
       <c r="D117" t="n">
-        <v>1.572</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="118">
@@ -2730,7 +2694,7 @@
         <v>121</v>
       </c>
       <c r="D118" t="n">
-        <v>1.543</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="119">
@@ -2744,7 +2708,7 @@
         <v>122</v>
       </c>
       <c r="D119" t="n">
-        <v>1.549</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="120">
@@ -2758,7 +2722,7 @@
         <v>123</v>
       </c>
       <c r="D120" t="n">
-        <v>1.533</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="121">
@@ -2772,7 +2736,7 @@
         <v>124</v>
       </c>
       <c r="D121" t="n">
-        <v>1.541</v>
+        <v>1.437</v>
       </c>
     </row>
     <row r="122">
@@ -2786,7 +2750,7 @@
         <v>125</v>
       </c>
       <c r="D122" t="n">
-        <v>1.546</v>
+        <v>1.429</v>
       </c>
     </row>
     <row r="123">
@@ -2800,7 +2764,7 @@
         <v>126</v>
       </c>
       <c r="D123" t="n">
-        <v>1.55</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="124">
@@ -2814,7 +2778,7 @@
         <v>127</v>
       </c>
       <c r="D124" t="n">
-        <v>1.545</v>
+        <v>1.463</v>
       </c>
     </row>
     <row r="125">
@@ -2828,7 +2792,7 @@
         <v>128</v>
       </c>
       <c r="D125" t="n">
-        <v>1.539</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="126">
@@ -2842,7 +2806,7 @@
         <v>129</v>
       </c>
       <c r="D126" t="n">
-        <v>1.483</v>
+        <v>1.489</v>
       </c>
     </row>
     <row r="127">
@@ -2856,7 +2820,7 @@
         <v>130</v>
       </c>
       <c r="D127" t="n">
-        <v>1.515</v>
+        <v>1.408</v>
       </c>
     </row>
     <row r="128">
@@ -2870,7 +2834,7 @@
         <v>131</v>
       </c>
       <c r="D128" t="n">
-        <v>1.487</v>
+        <v>1.445</v>
       </c>
     </row>
     <row r="129">
@@ -2884,7 +2848,7 @@
         <v>132</v>
       </c>
       <c r="D129" t="n">
-        <v>1.428</v>
+        <v>1.426</v>
       </c>
     </row>
     <row r="130">
@@ -2898,7 +2862,7 @@
         <v>133</v>
       </c>
       <c r="D130" t="n">
-        <v>1.415</v>
+        <v>1.487</v>
       </c>
     </row>
     <row r="131">
@@ -2912,7 +2876,7 @@
         <v>134</v>
       </c>
       <c r="D131" t="n">
-        <v>1.43</v>
+        <v>1.502</v>
       </c>
     </row>
     <row r="132">
@@ -2926,7 +2890,7 @@
         <v>135</v>
       </c>
       <c r="D132" t="n">
-        <v>1.484</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="133">
@@ -2940,7 +2904,7 @@
         <v>136</v>
       </c>
       <c r="D133" t="n">
-        <v>1.437</v>
+        <v>1.463</v>
       </c>
     </row>
     <row r="134">
@@ -2954,7 +2918,7 @@
         <v>137</v>
       </c>
       <c r="D134" t="n">
-        <v>1.429</v>
+        <v>1.418</v>
       </c>
     </row>
     <row r="135">
@@ -2968,7 +2932,7 @@
         <v>138</v>
       </c>
       <c r="D135" t="n">
-        <v>1.478</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="136">
@@ -2982,7 +2946,7 @@
         <v>139</v>
       </c>
       <c r="D136" t="n">
-        <v>1.463</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="137">
@@ -2996,7 +2960,7 @@
         <v>140</v>
       </c>
       <c r="D137" t="n">
-        <v>1.496</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="138">
@@ -3010,7 +2974,7 @@
         <v>141</v>
       </c>
       <c r="D138" t="n">
-        <v>1.489</v>
+        <v>1.499</v>
       </c>
     </row>
     <row r="139">
@@ -3024,7 +2988,7 @@
         <v>142</v>
       </c>
       <c r="D139" t="n">
-        <v>1.408</v>
+        <v>1.497</v>
       </c>
     </row>
     <row r="140">
@@ -3038,7 +3002,7 @@
         <v>143</v>
       </c>
       <c r="D140" t="n">
-        <v>1.445</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="141">
@@ -3052,7 +3016,7 @@
         <v>144</v>
       </c>
       <c r="D141" t="n">
-        <v>1.426</v>
+        <v>1.489</v>
       </c>
     </row>
     <row r="142">
@@ -3066,7 +3030,7 @@
         <v>145</v>
       </c>
       <c r="D142" t="n">
-        <v>1.487</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="143">
@@ -3080,7 +3044,7 @@
         <v>146</v>
       </c>
       <c r="D143" t="n">
-        <v>1.502</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="144">
@@ -3094,7 +3058,7 @@
         <v>147</v>
       </c>
       <c r="D144" t="n">
-        <v>1.478</v>
+        <v>1.451</v>
       </c>
     </row>
     <row r="145">
@@ -3108,7 +3072,7 @@
         <v>148</v>
       </c>
       <c r="D145" t="n">
-        <v>1.463</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="146">
@@ -3122,7 +3086,7 @@
         <v>149</v>
       </c>
       <c r="D146" t="n">
-        <v>1.418</v>
+        <v>1.509</v>
       </c>
     </row>
     <row r="147">
@@ -3136,7 +3100,7 @@
         <v>150</v>
       </c>
       <c r="D147" t="n">
-        <v>1.473</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="148">
@@ -3150,7 +3114,7 @@
         <v>151</v>
       </c>
       <c r="D148" t="n">
-        <v>1.462</v>
+        <v>1.502</v>
       </c>
     </row>
     <row r="149">
@@ -3164,7 +3128,7 @@
         <v>152</v>
       </c>
       <c r="D149" t="n">
-        <v>1.444</v>
+        <v>1.511</v>
       </c>
     </row>
     <row r="150">
@@ -3178,7 +3142,7 @@
         <v>153</v>
       </c>
       <c r="D150" t="n">
-        <v>1.499</v>
+        <v>1.523</v>
       </c>
     </row>
     <row r="151">
@@ -3192,7 +3156,7 @@
         <v>154</v>
       </c>
       <c r="D151" t="n">
-        <v>1.497</v>
+        <v>1.514</v>
       </c>
     </row>
     <row r="152">
@@ -3206,7 +3170,7 @@
         <v>155</v>
       </c>
       <c r="D152" t="n">
-        <v>1.496</v>
+        <v>1.519</v>
       </c>
     </row>
     <row r="153">
@@ -3220,7 +3184,7 @@
         <v>156</v>
       </c>
       <c r="D153" t="n">
-        <v>1.489</v>
+        <v>1.511</v>
       </c>
     </row>
     <row r="154">
@@ -3234,7 +3198,7 @@
         <v>157</v>
       </c>
       <c r="D154" t="n">
-        <v>1.48</v>
+        <v>1.487</v>
       </c>
     </row>
     <row r="155">
@@ -3248,7 +3212,7 @@
         <v>158</v>
       </c>
       <c r="D155" t="n">
-        <v>1.484</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="156">
@@ -3262,7 +3226,7 @@
         <v>159</v>
       </c>
       <c r="D156" t="n">
-        <v>1.451</v>
+        <v>1.501</v>
       </c>
     </row>
     <row r="157">
@@ -3276,7 +3240,7 @@
         <v>160</v>
       </c>
       <c r="D157" t="n">
-        <v>1.47</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="158">
@@ -3290,7 +3254,7 @@
         <v>161</v>
       </c>
       <c r="D158" t="n">
-        <v>1.509</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="159">
@@ -3304,7 +3268,7 @@
         <v>162</v>
       </c>
       <c r="D159" t="n">
-        <v>1.478</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="160">
@@ -3318,7 +3282,7 @@
         <v>163</v>
       </c>
       <c r="D160" t="n">
-        <v>1.502</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="161">
@@ -3332,7 +3296,7 @@
         <v>164</v>
       </c>
       <c r="D161" t="n">
-        <v>1.511</v>
+        <v>1.463</v>
       </c>
     </row>
     <row r="162">
@@ -3346,7 +3310,7 @@
         <v>165</v>
       </c>
       <c r="D162" t="n">
-        <v>1.523</v>
+        <v>1.479</v>
       </c>
     </row>
     <row r="163">
@@ -3360,7 +3324,7 @@
         <v>166</v>
       </c>
       <c r="D163" t="n">
-        <v>1.514</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="164">
@@ -3374,7 +3338,7 @@
         <v>167</v>
       </c>
       <c r="D164" t="n">
-        <v>1.519</v>
+        <v>1.562</v>
       </c>
     </row>
     <row r="165">
@@ -3388,7 +3352,7 @@
         <v>168</v>
       </c>
       <c r="D165" t="n">
-        <v>1.511</v>
+        <v>1.514</v>
       </c>
     </row>
     <row r="166">
@@ -3416,7 +3380,7 @@
         <v>170</v>
       </c>
       <c r="D167" t="n">
-        <v>1.444</v>
+        <v>1.538</v>
       </c>
     </row>
     <row r="168">
@@ -3430,7 +3394,7 @@
         <v>171</v>
       </c>
       <c r="D168" t="n">
-        <v>1.501</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="169">
@@ -3444,7 +3408,7 @@
         <v>172</v>
       </c>
       <c r="D169" t="n">
-        <v>1.466</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="170">
@@ -3458,7 +3422,7 @@
         <v>173</v>
       </c>
       <c r="D170" t="n">
-        <v>1.473</v>
+        <v>1.409</v>
       </c>
     </row>
     <row r="171">
@@ -3472,7 +3436,7 @@
         <v>174</v>
       </c>
       <c r="D171" t="n">
-        <v>1.486</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="172">
@@ -3486,7 +3450,7 @@
         <v>175</v>
       </c>
       <c r="D172" t="n">
-        <v>1.468</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="173">
@@ -3500,7 +3464,7 @@
         <v>176</v>
       </c>
       <c r="D173" t="n">
-        <v>1.463</v>
+        <v>1.571</v>
       </c>
     </row>
     <row r="174">
@@ -3514,7 +3478,7 @@
         <v>177</v>
       </c>
       <c r="D174" t="n">
-        <v>1.479</v>
+        <v>1.659</v>
       </c>
     </row>
     <row r="175">
@@ -3528,7 +3492,7 @@
         <v>178</v>
       </c>
       <c r="D175" t="n">
-        <v>1.59</v>
+        <v>1.747</v>
       </c>
     </row>
     <row r="176">
@@ -3542,7 +3506,7 @@
         <v>179</v>
       </c>
       <c r="D176" t="n">
-        <v>1.562</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="177">
@@ -3556,7 +3520,7 @@
         <v>180</v>
       </c>
       <c r="D177" t="n">
-        <v>1.514</v>
+        <v>1.609</v>
       </c>
     </row>
     <row r="178">
@@ -3570,7 +3534,7 @@
         <v>181</v>
       </c>
       <c r="D178" t="n">
-        <v>1.487</v>
+        <v>1.542</v>
       </c>
     </row>
     <row r="179">
@@ -3584,7 +3548,7 @@
         <v>182</v>
       </c>
       <c r="D179" t="n">
-        <v>1.538</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="180">
@@ -3598,7 +3562,7 @@
         <v>183</v>
       </c>
       <c r="D180" t="n">
-        <v>1.43</v>
+        <v>1.639</v>
       </c>
     </row>
     <row r="181">
@@ -3612,7 +3576,7 @@
         <v>184</v>
       </c>
       <c r="D181" t="n">
-        <v>1.45</v>
+        <v>1.621</v>
       </c>
     </row>
     <row r="182">
@@ -3626,7 +3590,7 @@
         <v>185</v>
       </c>
       <c r="D182" t="n">
-        <v>1.409</v>
+        <v>1.595</v>
       </c>
     </row>
     <row r="183">
@@ -3640,7 +3604,7 @@
         <v>186</v>
       </c>
       <c r="D183" t="n">
-        <v>1.362</v>
+        <v>1.583</v>
       </c>
     </row>
     <row r="184">
@@ -3654,7 +3618,7 @@
         <v>187</v>
       </c>
       <c r="D184" t="n">
-        <v>1.4</v>
+        <v>1.543</v>
       </c>
     </row>
     <row r="185">
@@ -3668,7 +3632,7 @@
         <v>188</v>
       </c>
       <c r="D185" t="n">
-        <v>1.571</v>
+        <v>1.515</v>
       </c>
     </row>
     <row r="186">
@@ -3682,7 +3646,7 @@
         <v>189</v>
       </c>
       <c r="D186" t="n">
-        <v>1.659</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="187">
@@ -3696,7 +3660,7 @@
         <v>190</v>
       </c>
       <c r="D187" t="n">
-        <v>1.747</v>
+        <v>1.474</v>
       </c>
     </row>
     <row r="188">
@@ -3710,7 +3674,7 @@
         <v>191</v>
       </c>
       <c r="D188" t="n">
-        <v>1.712</v>
+        <v>1.435</v>
       </c>
     </row>
     <row r="189">
@@ -3724,7 +3688,7 @@
         <v>192</v>
       </c>
       <c r="D189" t="n">
-        <v>1.609</v>
+        <v>1.472</v>
       </c>
     </row>
     <row r="190">
@@ -3738,7 +3702,7 @@
         <v>193</v>
       </c>
       <c r="D190" t="n">
-        <v>1.542</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="191">
@@ -3752,7 +3716,7 @@
         <v>194</v>
       </c>
       <c r="D191" t="n">
-        <v>1.58</v>
+        <v>1.523</v>
       </c>
     </row>
     <row r="192">
@@ -3766,7 +3730,7 @@
         <v>195</v>
       </c>
       <c r="D192" t="n">
-        <v>1.639</v>
+        <v>1.583</v>
       </c>
     </row>
     <row r="193">
@@ -3780,7 +3744,7 @@
         <v>196</v>
       </c>
       <c r="D193" t="n">
-        <v>1.621</v>
+        <v>1.606</v>
       </c>
     </row>
     <row r="194">
@@ -3794,7 +3758,7 @@
         <v>197</v>
       </c>
       <c r="D194" t="n">
-        <v>1.595</v>
+        <v>1.622</v>
       </c>
     </row>
     <row r="195">
@@ -3808,7 +3772,7 @@
         <v>198</v>
       </c>
       <c r="D195" t="n">
-        <v>1.583</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="196">
@@ -3822,7 +3786,7 @@
         <v>199</v>
       </c>
       <c r="D196" t="n">
-        <v>1.543</v>
+        <v>1.724</v>
       </c>
     </row>
     <row r="197">
@@ -3836,7 +3800,7 @@
         <v>200</v>
       </c>
       <c r="D197" t="n">
-        <v>1.515</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="198">
@@ -3850,7 +3814,7 @@
         <v>201</v>
       </c>
       <c r="D198" t="n">
-        <v>1.486</v>
+        <v>1.824</v>
       </c>
     </row>
     <row r="199">
@@ -3864,7 +3828,7 @@
         <v>202</v>
       </c>
       <c r="D199" t="n">
-        <v>1.474</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="200">
@@ -3878,7 +3842,7 @@
         <v>203</v>
       </c>
       <c r="D200" t="n">
-        <v>1.435</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="201">
@@ -3892,7 +3856,7 @@
         <v>204</v>
       </c>
       <c r="D201" t="n">
-        <v>1.472</v>
+        <v>1.879</v>
       </c>
     </row>
     <row r="202">
@@ -3906,7 +3870,7 @@
         <v>205</v>
       </c>
       <c r="D202" t="n">
-        <v>1.504</v>
+        <v>1.891</v>
       </c>
     </row>
     <row r="203">
@@ -3920,7 +3884,7 @@
         <v>206</v>
       </c>
       <c r="D203" t="n">
-        <v>1.523</v>
+        <v>1.863</v>
       </c>
     </row>
     <row r="204">
@@ -3934,7 +3898,7 @@
         <v>207</v>
       </c>
       <c r="D204" t="n">
-        <v>1.583</v>
+        <v>1.843</v>
       </c>
     </row>
     <row r="205">
@@ -3948,7 +3912,7 @@
         <v>208</v>
       </c>
       <c r="D205" t="n">
-        <v>1.606</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="206">
@@ -3962,7 +3926,7 @@
         <v>209</v>
       </c>
       <c r="D206" t="n">
-        <v>1.622</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="207">
@@ -3976,7 +3940,7 @@
         <v>210</v>
       </c>
       <c r="D207" t="n">
-        <v>1.632</v>
+        <v>1.894</v>
       </c>
     </row>
     <row r="208">
@@ -3990,7 +3954,7 @@
         <v>211</v>
       </c>
       <c r="D208" t="n">
-        <v>1.724</v>
+        <v>1.868</v>
       </c>
     </row>
     <row r="209">
@@ -4004,7 +3968,7 @@
         <v>212</v>
       </c>
       <c r="D209" t="n">
-        <v>1.794</v>
+        <v>1.873</v>
       </c>
     </row>
     <row r="210">
@@ -4018,7 +3982,7 @@
         <v>213</v>
       </c>
       <c r="D210" t="n">
-        <v>1.824</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="211">
@@ -4032,7 +3996,7 @@
         <v>214</v>
       </c>
       <c r="D211" t="n">
-        <v>1.826</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="212">
@@ -4046,7 +4010,7 @@
         <v>215</v>
       </c>
       <c r="D212" t="n">
-        <v>1.88</v>
+        <v>1.891</v>
       </c>
     </row>
     <row r="213">
@@ -4060,7 +4024,7 @@
         <v>216</v>
       </c>
       <c r="D213" t="n">
-        <v>1.879</v>
+        <v>1.958</v>
       </c>
     </row>
     <row r="214">
@@ -4074,7 +4038,7 @@
         <v>217</v>
       </c>
       <c r="D214" t="n">
-        <v>1.891</v>
+        <v>1.901</v>
       </c>
     </row>
     <row r="215">
@@ -4088,7 +4052,7 @@
         <v>218</v>
       </c>
       <c r="D215" t="n">
-        <v>1.863</v>
+        <v>1.926</v>
       </c>
     </row>
     <row r="216">
@@ -4102,7 +4066,7 @@
         <v>219</v>
       </c>
       <c r="D216" t="n">
-        <v>1.843</v>
+        <v>1.976</v>
       </c>
     </row>
     <row r="217">
@@ -4116,7 +4080,7 @@
         <v>220</v>
       </c>
       <c r="D217" t="n">
-        <v>1.83</v>
+        <v>1.955</v>
       </c>
     </row>
     <row r="218">
@@ -4130,7 +4094,7 @@
         <v>221</v>
       </c>
       <c r="D218" t="n">
-        <v>1.855</v>
+        <v>1.987</v>
       </c>
     </row>
     <row r="219">
@@ -4144,7 +4108,7 @@
         <v>222</v>
       </c>
       <c r="D219" t="n">
-        <v>1.894</v>
+        <v>1.951</v>
       </c>
     </row>
     <row r="220">
@@ -4158,7 +4122,7 @@
         <v>223</v>
       </c>
       <c r="D220" t="n">
-        <v>1.868</v>
+        <v>1.991</v>
       </c>
     </row>
     <row r="221">
@@ -4172,7 +4136,7 @@
         <v>224</v>
       </c>
       <c r="D221" t="n">
-        <v>1.873</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="222">
@@ -4186,7 +4150,7 @@
         <v>225</v>
       </c>
       <c r="D222" t="n">
-        <v>1.92</v>
+        <v>2.013</v>
       </c>
     </row>
     <row r="223">
@@ -4200,7 +4164,7 @@
         <v>226</v>
       </c>
       <c r="D223" t="n">
-        <v>1.953</v>
+        <v>2.007</v>
       </c>
     </row>
     <row r="224">
@@ -4214,7 +4178,7 @@
         <v>227</v>
       </c>
       <c r="D224" t="n">
-        <v>1.891</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="225">
@@ -4228,7 +4192,7 @@
         <v>228</v>
       </c>
       <c r="D225" t="n">
-        <v>1.958</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="226">
@@ -4242,7 +4206,7 @@
         <v>229</v>
       </c>
       <c r="D226" t="n">
-        <v>1.901</v>
+        <v>1.979</v>
       </c>
     </row>
     <row r="227">
@@ -4256,7 +4220,7 @@
         <v>230</v>
       </c>
       <c r="D227" t="n">
-        <v>1.926</v>
+        <v>1.987</v>
       </c>
     </row>
     <row r="228">
@@ -4270,7 +4234,7 @@
         <v>231</v>
       </c>
       <c r="D228" t="n">
-        <v>1.976</v>
+        <v>2.076</v>
       </c>
     </row>
     <row r="229">
@@ -4284,7 +4248,7 @@
         <v>232</v>
       </c>
       <c r="D229" t="n">
-        <v>1.955</v>
+        <v>2.061</v>
       </c>
     </row>
     <row r="230">
@@ -4298,174 +4262,6 @@
         <v>233</v>
       </c>
       <c r="D230" t="n">
-        <v>1.987</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>234</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1.951</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>235</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1.991</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>236</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1.953</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>237</v>
-      </c>
-      <c r="D234" t="n">
-        <v>2.013</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>238</v>
-      </c>
-      <c r="D235" t="n">
-        <v>2.007</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>239</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1.988</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>240</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1.988</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>241</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1.979</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>242</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1.987</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>243</v>
-      </c>
-      <c r="D240" t="n">
-        <v>2.076</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>244</v>
-      </c>
-      <c r="D241" t="n">
-        <v>2.061</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>245</v>
-      </c>
-      <c r="D242" t="n">
         <v>2.061</v>
       </c>
     </row>
